--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1582126.452481784</v>
+        <v>1578114.649749687</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518386</v>
+        <v>29001646.18518388</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4272313.140225724</v>
+        <v>4272313.140225723</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>175.1745374468666</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>160.8632688697914</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>141.4018252372584</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648567</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>152.8999186087154</v>
@@ -1584,13 +1584,13 @@
         <v>237.097464026797</v>
       </c>
       <c r="U13" t="n">
-        <v>231.9891245802442</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1612,19 +1612,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>352.4925759505874</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T14" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>31.0650629492826</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,10 +1770,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>9.267814325145046</v>
       </c>
       <c r="E16" t="n">
-        <v>134.9608343337583</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.48994447064856</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S16" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.097464026797</v>
@@ -1827,10 +1827,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>345.8558155219264</v>
       </c>
       <c r="F17" t="n">
-        <v>38.84056889706806</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T17" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2004,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>26.51105219961456</v>
       </c>
       <c r="G19" t="n">
-        <v>26.62073320630297</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.48994447064856</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S19" t="n">
         <v>152.8999186087154</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2092,13 +2092,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>336.9645032561147</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>10.62651873975665</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>15.75775879579322</v>
       </c>
       <c r="H22" t="n">
-        <v>30.13759238355346</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.48994447064856</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.097464026797</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -2332,10 +2332,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>372.3138302714344</v>
+        <v>138.4349026083653</v>
       </c>
       <c r="H23" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U23" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>6.48994447064856</v>
       </c>
       <c r="S25" t="n">
-        <v>152.8999186087148</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T25" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3339849899815</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2563,13 +2563,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>328.8628416082046</v>
+        <v>305.4542337230819</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>383.7093523162147</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>265.1944744517989</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -3031,19 +3031,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>354.9567166855656</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H32" t="n">
         <v>274.5392124624013</v>
@@ -3088,16 +3088,16 @@
         <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>246.6549741003774</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>45.14443788716078</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.04236988161364</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>122.2870540912324</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>163.7030512222169</v>
@@ -3444,7 +3444,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603953</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T37" t="n">
         <v>237.097464026797</v>
@@ -3486,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>93.60945915320893</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>75.35227771287211</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161365</v>
+        <v>53.20655220102469</v>
       </c>
       <c r="T38" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>266.2441814124364</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>22.30754506345032</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3678,7 +3678,7 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H40" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.48994447064856</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>237.097464026797</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>122.6038031959706</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3742,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>352.4925759505878</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>387.1105424413253</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>398.3085625684984</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161364</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,13 +3900,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>153.4880756040901</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3915,7 +3915,7 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U43" t="n">
-        <v>201.9400328016798</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162.9081044153015</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -3994,7 +3994,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161364</v>
       </c>
       <c r="T44" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>34.95494995865483</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H46" t="n">
-        <v>48.87024863177146</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.96559361603953</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S46" t="n">
         <v>152.8999186087154</v>
@@ -4191,7 +4191,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3339849899809</v>
+        <v>67.99112846108909</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1048.008216749412</v>
+        <v>895.6330881347328</v>
       </c>
       <c r="C11" t="n">
-        <v>871.0642395303546</v>
+        <v>468.7323581480329</v>
       </c>
       <c r="D11" t="n">
-        <v>871.0642395303546</v>
+        <v>468.7323581480329</v>
       </c>
       <c r="E11" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="F11" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="G11" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H11" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I11" t="n">
         <v>84.39494262103608</v>
       </c>
       <c r="J11" t="n">
-        <v>222.2360596072049</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610008</v>
+        <v>437.0691715610003</v>
       </c>
       <c r="L11" t="n">
-        <v>709.5851800848327</v>
+        <v>709.5851800848321</v>
       </c>
       <c r="M11" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N11" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O11" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P11" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q11" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R11" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S11" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T11" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U11" t="n">
-        <v>1879.576579873195</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="V11" t="n">
-        <v>1879.576579873195</v>
+        <v>1463.458508553369</v>
       </c>
       <c r="W11" t="n">
-        <v>1879.576579873195</v>
+        <v>1300.970358179843</v>
       </c>
       <c r="X11" t="n">
-        <v>1467.856581040942</v>
+        <v>1300.970358179843</v>
       </c>
       <c r="Y11" t="n">
-        <v>1467.856581040942</v>
+        <v>895.6330881347328</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H12" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J12" t="n">
-        <v>142.0237151377162</v>
+        <v>165.481020982128</v>
       </c>
       <c r="K12" t="n">
-        <v>289.8146695059645</v>
+        <v>313.2719753503762</v>
       </c>
       <c r="L12" t="n">
-        <v>496.0652591283643</v>
+        <v>519.5225649727761</v>
       </c>
       <c r="M12" t="n">
-        <v>739.8954600838658</v>
+        <v>763.3527659282774</v>
       </c>
       <c r="N12" t="n">
-        <v>992.5205257180613</v>
+        <v>1015.977831562473</v>
       </c>
       <c r="O12" t="n">
-        <v>1376.999083460952</v>
+        <v>1243.469695585332</v>
       </c>
       <c r="P12" t="n">
-        <v>1556.439737111774</v>
+        <v>1422.910349236154</v>
       </c>
       <c r="Q12" t="n">
         <v>1668.279192602594</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>287.3097113254104</v>
+        <v>522.9147253154345</v>
       </c>
       <c r="C13" t="n">
-        <v>287.3097113254104</v>
+        <v>350.9421621943504</v>
       </c>
       <c r="D13" t="n">
-        <v>287.3097113254104</v>
+        <v>350.9421621943504</v>
       </c>
       <c r="E13" t="n">
-        <v>287.3097113254104</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="F13" t="n">
-        <v>115.4479370999708</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="G13" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H13" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I13" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J13" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K13" t="n">
-        <v>166.4811349991142</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L13" t="n">
-        <v>652.3645187823272</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M13" t="n">
-        <v>1181.462820193972</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N13" t="n">
-        <v>1295.958075335492</v>
+        <v>1606.073081164924</v>
       </c>
       <c r="O13" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P13" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R13" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T13" t="n">
-        <v>1737.278665192341</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U13" t="n">
-        <v>1502.946216121387</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V13" t="n">
-        <v>1221.234748729416</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W13" t="n">
-        <v>946.3823449019289</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="X13" t="n">
-        <v>703.818448347734</v>
+        <v>939.423462337758</v>
       </c>
       <c r="Y13" t="n">
-        <v>477.475680037476</v>
+        <v>713.0806940275</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1172.092665913797</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="C14" t="n">
-        <v>745.1919359270976</v>
+        <v>1652.24152836175</v>
       </c>
       <c r="D14" t="n">
-        <v>745.1919359270976</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="E14" t="n">
-        <v>745.1919359270976</v>
+        <v>870.211481488812</v>
       </c>
       <c r="F14" t="n">
-        <v>320.0677541164978</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G14" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H14" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J14" t="n">
         <v>222.2360596072047</v>
       </c>
       <c r="K14" t="n">
-        <v>437.0691715610008</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L14" t="n">
-        <v>709.5851800848326</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M14" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N14" t="n">
         <v>1332.070421635641</v>
@@ -5308,22 +5308,22 @@
         <v>2079.14225834845</v>
       </c>
       <c r="T14" t="n">
-        <v>1867.003122344158</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U14" t="n">
-        <v>1608.808787422829</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V14" t="n">
-        <v>1608.808787422829</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="W14" t="n">
-        <v>1577.429935958907</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="X14" t="n">
-        <v>1577.429935958907</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="Y14" t="n">
-        <v>1172.092665913797</v>
+        <v>2079.14225834845</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J15" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K15" t="n">
-        <v>289.8146695059645</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L15" t="n">
-        <v>496.0652591283643</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M15" t="n">
-        <v>739.8954600838658</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N15" t="n">
-        <v>992.5205257180613</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O15" t="n">
         <v>1376.999083460952</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>758.9231224043281</v>
+        <v>395.9511842536717</v>
       </c>
       <c r="C16" t="n">
-        <v>586.950559283244</v>
+        <v>223.9786211325877</v>
       </c>
       <c r="D16" t="n">
-        <v>423.6337864100147</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="E16" t="n">
-        <v>287.3097113254104</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="F16" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G16" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H16" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I16" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="J16" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K16" t="n">
-        <v>242.6760284464021</v>
+        <v>244.4028516473351</v>
       </c>
       <c r="L16" t="n">
-        <v>728.5594122296151</v>
+        <v>353.897341839383</v>
       </c>
       <c r="M16" t="n">
-        <v>1257.65771364126</v>
+        <v>882.9956432510278</v>
       </c>
       <c r="N16" t="n">
-        <v>1372.15296878278</v>
+        <v>1395.523821234428</v>
       </c>
       <c r="O16" t="n">
         <v>1852.309315854113</v>
@@ -5463,25 +5463,25 @@
         <v>2131.215415329222</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.771053098196</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="T16" t="n">
-        <v>1737.278665192341</v>
+        <v>1891.723027423367</v>
       </c>
       <c r="U16" t="n">
-        <v>1457.143326818623</v>
+        <v>1611.587689049648</v>
       </c>
       <c r="V16" t="n">
-        <v>1175.431859426652</v>
+        <v>1329.876221657677</v>
       </c>
       <c r="W16" t="n">
-        <v>1175.431859426652</v>
+        <v>1055.02381783019</v>
       </c>
       <c r="X16" t="n">
-        <v>1175.431859426652</v>
+        <v>812.4599212759953</v>
       </c>
       <c r="Y16" t="n">
-        <v>949.0890911163938</v>
+        <v>586.1171529657373</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.9883161717168</v>
+        <v>1667.422259516196</v>
       </c>
       <c r="C17" t="n">
-        <v>81.9883161717168</v>
+        <v>1240.521529529497</v>
       </c>
       <c r="D17" t="n">
-        <v>81.9883161717168</v>
+        <v>817.2289087144968</v>
       </c>
       <c r="E17" t="n">
-        <v>81.9883161717168</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F17" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="G17" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H17" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103617</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J17" t="n">
         <v>222.2360596072046</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610003</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848321</v>
       </c>
       <c r="M17" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N17" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O17" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P17" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q17" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R17" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S17" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T17" t="n">
-        <v>1925.631778790233</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U17" t="n">
-        <v>1667.437443868903</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V17" t="n">
-        <v>1309.948028995153</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="W17" t="n">
-        <v>913.5566792954996</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="X17" t="n">
-        <v>501.8366804632469</v>
+        <v>1667.422259516196</v>
       </c>
       <c r="Y17" t="n">
-        <v>501.8366804632469</v>
+        <v>1667.422259516196</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H18" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I18" t="n">
-        <v>62.98439029745217</v>
+        <v>86.441696141864</v>
       </c>
       <c r="J18" t="n">
-        <v>404.4659091426539</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K18" t="n">
-        <v>552.2568635109022</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L18" t="n">
-        <v>758.5074531333021</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M18" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N18" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O18" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P18" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q18" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R18" t="n">
         <v>1815.649874842555</v>
@@ -5649,52 +5649,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>241.5068220226462</v>
+        <v>241.5068220226457</v>
       </c>
       <c r="C19" t="n">
-        <v>241.5068220226462</v>
+        <v>69.53425890156174</v>
       </c>
       <c r="D19" t="n">
-        <v>241.5068220226462</v>
+        <v>69.53425890156174</v>
       </c>
       <c r="E19" t="n">
-        <v>241.5068220226462</v>
+        <v>69.53425890156174</v>
       </c>
       <c r="F19" t="n">
-        <v>69.64504779720662</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="G19" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H19" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I19" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J19" t="n">
         <v>84.71320548484809</v>
       </c>
       <c r="K19" t="n">
-        <v>413.7637441131363</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L19" t="n">
-        <v>523.2582343051844</v>
+        <v>652.3645187823272</v>
       </c>
       <c r="M19" t="n">
-        <v>1052.356535716829</v>
+        <v>1181.462820193972</v>
       </c>
       <c r="N19" t="n">
-        <v>1564.884713700229</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O19" t="n">
-        <v>1852.309315854113</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P19" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q19" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R19" t="n">
         <v>2131.215415329222</v>
@@ -5703,22 +5703,22 @@
         <v>1976.771053098196</v>
       </c>
       <c r="T19" t="n">
-        <v>1737.278665192341</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="U19" t="n">
-        <v>1457.143326818623</v>
+        <v>1457.143326818622</v>
       </c>
       <c r="V19" t="n">
-        <v>1175.431859426652</v>
+        <v>1175.431859426651</v>
       </c>
       <c r="W19" t="n">
-        <v>900.5794555991647</v>
+        <v>900.5794555991642</v>
       </c>
       <c r="X19" t="n">
-        <v>658.0155590449698</v>
+        <v>658.0155590449693</v>
       </c>
       <c r="Y19" t="n">
-        <v>431.6727907347118</v>
+        <v>431.6727907347114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1329.659566262618</v>
+        <v>1659.293894056919</v>
       </c>
       <c r="C20" t="n">
-        <v>902.7588362759182</v>
+        <v>1232.393164070219</v>
       </c>
       <c r="D20" t="n">
-        <v>479.4662154609184</v>
+        <v>809.1005432552195</v>
       </c>
       <c r="E20" t="n">
-        <v>53.48927560877598</v>
+        <v>383.123603403077</v>
       </c>
       <c r="F20" t="n">
-        <v>53.48927560877598</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="G20" t="n">
-        <v>53.48927560877598</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H20" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I20" t="n">
         <v>84.39494262103619</v>
@@ -5767,37 +5767,37 @@
         <v>1332.070421635641</v>
       </c>
       <c r="O20" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P20" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q20" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R20" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S20" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T20" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U20" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V20" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="W20" t="n">
-        <v>1741.379565094871</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="X20" t="n">
-        <v>1329.659566262618</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="Y20" t="n">
-        <v>1329.659566262618</v>
+        <v>2079.142258348449</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H21" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I21" t="n">
-        <v>62.98439029745217</v>
+        <v>86.441696141864</v>
       </c>
       <c r="J21" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577478</v>
       </c>
       <c r="K21" t="n">
-        <v>289.8146695059645</v>
+        <v>446.8013632259962</v>
       </c>
       <c r="L21" t="n">
-        <v>496.0652591283643</v>
+        <v>653.051952848396</v>
       </c>
       <c r="M21" t="n">
-        <v>739.8954600838658</v>
+        <v>896.8821538038975</v>
       </c>
       <c r="N21" t="n">
-        <v>992.5205257180613</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O21" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P21" t="n">
-        <v>1399.453043391742</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q21" t="n">
         <v>1668.279192602594</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>484.0707185768411</v>
+        <v>402.5066837189729</v>
       </c>
       <c r="C22" t="n">
-        <v>312.0981554557571</v>
+        <v>230.5341205978889</v>
       </c>
       <c r="D22" t="n">
-        <v>312.0981554557571</v>
+        <v>230.5341205978889</v>
       </c>
       <c r="E22" t="n">
-        <v>145.8899496086107</v>
+        <v>230.5341205978889</v>
       </c>
       <c r="F22" t="n">
-        <v>145.8899496086107</v>
+        <v>58.67234637244928</v>
       </c>
       <c r="G22" t="n">
-        <v>145.8899496086107</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H22" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I22" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J22" t="n">
         <v>162.634922133069</v>
       </c>
       <c r="K22" t="n">
-        <v>491.6854607613572</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L22" t="n">
-        <v>977.5688445445702</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M22" t="n">
-        <v>1506.667145956215</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N22" t="n">
-        <v>1621.162401097735</v>
+        <v>1372.152968782779</v>
       </c>
       <c r="O22" t="n">
-        <v>1723.616423865865</v>
+        <v>1852.309315854113</v>
       </c>
       <c r="P22" t="n">
-        <v>2088.252358880159</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q22" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R22" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S22" t="n">
-        <v>1976.771053098196</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T22" t="n">
-        <v>1737.278665192341</v>
+        <v>1898.278526888668</v>
       </c>
       <c r="U22" t="n">
-        <v>1457.143326818623</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V22" t="n">
-        <v>1175.431859426652</v>
+        <v>1336.431721122978</v>
       </c>
       <c r="W22" t="n">
-        <v>900.5794555991647</v>
+        <v>1061.579317295491</v>
       </c>
       <c r="X22" t="n">
-        <v>900.5794555991647</v>
+        <v>819.0154207412965</v>
       </c>
       <c r="Y22" t="n">
-        <v>674.2366872889068</v>
+        <v>592.6726524310385</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1991.459454583363</v>
+        <v>1901.198398503949</v>
       </c>
       <c r="C23" t="n">
-        <v>1564.558724596663</v>
+        <v>1474.297668517249</v>
       </c>
       <c r="D23" t="n">
-        <v>1564.558724596663</v>
+        <v>1051.005047702249</v>
       </c>
       <c r="E23" t="n">
-        <v>1138.581784744521</v>
+        <v>625.0281078501065</v>
       </c>
       <c r="F23" t="n">
-        <v>713.4576029339212</v>
+        <v>199.9039260395067</v>
       </c>
       <c r="G23" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H23" t="n">
-        <v>60.07069108156193</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="I23" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J23" t="n">
         <v>631.2805511005022</v>
@@ -6013,28 +6013,28 @@
         <v>2914.642355556173</v>
       </c>
       <c r="R23" t="n">
-        <v>3003.534554078096</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="S23" t="n">
-        <v>3003.534554078096</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T23" t="n">
-        <v>3003.534554078096</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U23" t="n">
-        <v>2745.340219156767</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="V23" t="n">
-        <v>2387.850804283016</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="W23" t="n">
-        <v>1991.459454583363</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="X23" t="n">
-        <v>1991.459454583363</v>
+        <v>2321.046762795479</v>
       </c>
       <c r="Y23" t="n">
-        <v>1991.459454583363</v>
+        <v>2321.046762795479</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>103.0748183734007</v>
       </c>
       <c r="H24" t="n">
-        <v>60.07069108156193</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="I24" t="n">
-        <v>80.2996630831236</v>
+        <v>80.29966308312362</v>
       </c>
       <c r="J24" t="n">
         <v>421.7811819283253</v>
@@ -6126,16 +6126,16 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C25" t="n">
-        <v>935.297898185135</v>
+        <v>935.2978981851354</v>
       </c>
       <c r="D25" t="n">
-        <v>771.9811253119058</v>
+        <v>771.9811253119061</v>
       </c>
       <c r="E25" t="n">
-        <v>605.7729194647593</v>
+        <v>605.7729194647596</v>
       </c>
       <c r="F25" t="n">
-        <v>433.9111452393197</v>
+        <v>433.91114523932</v>
       </c>
       <c r="G25" t="n">
         <v>268.554527843141</v>
@@ -6144,7 +6144,7 @@
         <v>132.7632098856423</v>
       </c>
       <c r="I25" t="n">
-        <v>60.07069108156193</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="J25" t="n">
         <v>179.9501949187404</v>
@@ -6153,22 +6153,22 @@
         <v>509.0007335470286</v>
       </c>
       <c r="L25" t="n">
-        <v>994.8841173302417</v>
+        <v>883.1206864098697</v>
       </c>
       <c r="M25" t="n">
-        <v>1524.395656430017</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N25" t="n">
-        <v>2036.923834413417</v>
+        <v>1925.160403493045</v>
       </c>
       <c r="O25" t="n">
-        <v>2405.316750564378</v>
+        <v>2405.316750564379</v>
       </c>
       <c r="P25" t="n">
-        <v>2802.642500785832</v>
+        <v>2802.642500785833</v>
       </c>
       <c r="Q25" t="n">
-        <v>3003.534554078096</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="R25" t="n">
         <v>2996.979054612795</v>
@@ -6180,13 +6180,13 @@
         <v>2603.042304475914</v>
       </c>
       <c r="U25" t="n">
-        <v>2322.906966102195</v>
+        <v>2322.906966102196</v>
       </c>
       <c r="V25" t="n">
-        <v>2041.195498710224</v>
+        <v>2041.195498710225</v>
       </c>
       <c r="W25" t="n">
-        <v>1766.343094882737</v>
+        <v>1766.343094882738</v>
       </c>
       <c r="X25" t="n">
         <v>1523.779198328543</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1310.819375089483</v>
+        <v>1334.464433559304</v>
       </c>
       <c r="C26" t="n">
-        <v>1310.819375089483</v>
+        <v>1334.464433559304</v>
       </c>
       <c r="D26" t="n">
-        <v>887.5267542744834</v>
+        <v>911.1718127443041</v>
       </c>
       <c r="E26" t="n">
-        <v>887.5267542744834</v>
+        <v>485.1948728921618</v>
       </c>
       <c r="F26" t="n">
-        <v>462.4025724638836</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="G26" t="n">
         <v>60.07069108156194</v>
@@ -6229,10 +6229,10 @@
         <v>631.2805511005022</v>
       </c>
       <c r="K26" t="n">
-        <v>846.1136630542981</v>
+        <v>1302.832810844573</v>
       </c>
       <c r="L26" t="n">
-        <v>1140.346868514893</v>
+        <v>1575.348819368405</v>
       </c>
       <c r="M26" t="n">
         <v>1883.721670649222</v>
@@ -6265,13 +6265,13 @@
         <v>2474.572426706402</v>
       </c>
       <c r="W26" t="n">
-        <v>2142.387738213266</v>
+        <v>2166.032796683087</v>
       </c>
       <c r="X26" t="n">
-        <v>1730.667739381013</v>
+        <v>1754.312797850834</v>
       </c>
       <c r="Y26" t="n">
-        <v>1730.667739381013</v>
+        <v>1754.312797850834</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1107.27046130622</v>
+        <v>1107.270461306219</v>
       </c>
       <c r="C28" t="n">
-        <v>935.2978981851355</v>
+        <v>935.2978981851346</v>
       </c>
       <c r="D28" t="n">
-        <v>771.9811253119062</v>
+        <v>771.9811253119053</v>
       </c>
       <c r="E28" t="n">
-        <v>605.7729194647598</v>
+        <v>605.7729194647588</v>
       </c>
       <c r="F28" t="n">
-        <v>433.9111452393203</v>
+        <v>433.9111452393194</v>
       </c>
       <c r="G28" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H28" t="n">
         <v>132.7632098856423</v>
@@ -6384,16 +6384,16 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J28" t="n">
-        <v>102.0284782705196</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K28" t="n">
-        <v>431.0790168988078</v>
+        <v>397.2373026266567</v>
       </c>
       <c r="L28" t="n">
-        <v>916.9624006820208</v>
+        <v>883.1206864098697</v>
       </c>
       <c r="M28" t="n">
-        <v>1446.473939781796</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N28" t="n">
         <v>1925.160403493045</v>
@@ -6408,28 +6408,28 @@
         <v>3003.534554078097</v>
       </c>
       <c r="R28" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S28" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T28" t="n">
-        <v>2603.042304475915</v>
+        <v>2603.042304475914</v>
       </c>
       <c r="U28" t="n">
-        <v>2322.906966102196</v>
+        <v>2322.906966102195</v>
       </c>
       <c r="V28" t="n">
-        <v>2041.195498710225</v>
+        <v>2041.195498710224</v>
       </c>
       <c r="W28" t="n">
-        <v>1766.343094882738</v>
+        <v>1766.343094882737</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.779198328543</v>
+        <v>1523.779198328542</v>
       </c>
       <c r="Y28" t="n">
-        <v>1297.436430018285</v>
+        <v>1297.436430018284</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1334.464433559304</v>
+        <v>763.3599667543117</v>
       </c>
       <c r="C29" t="n">
-        <v>1334.464433559304</v>
+        <v>763.3599667543117</v>
       </c>
       <c r="D29" t="n">
-        <v>911.1718127443041</v>
+        <v>763.3599667543117</v>
       </c>
       <c r="E29" t="n">
-        <v>485.1948728921618</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="F29" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="G29" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H29" t="n">
         <v>60.07069108156194</v>
@@ -6463,25 +6463,25 @@
         <v>101.7102154067077</v>
       </c>
       <c r="J29" t="n">
-        <v>617.1409052802803</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K29" t="n">
-        <v>831.9740172340762</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L29" t="n">
-        <v>1575.348819368405</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M29" t="n">
-        <v>1883.721670649222</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N29" t="n">
-        <v>2197.834060919214</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O29" t="n">
-        <v>2492.274503919738</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P29" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q29" t="n">
         <v>2914.642355556173</v>
@@ -6493,22 +6493,22 @@
         <v>3003.534554078097</v>
       </c>
       <c r="T29" t="n">
-        <v>2791.395418073806</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="U29" t="n">
-        <v>2791.395418073806</v>
+        <v>2745.340219156767</v>
       </c>
       <c r="V29" t="n">
-        <v>2433.906003200055</v>
+        <v>2387.850804283017</v>
       </c>
       <c r="W29" t="n">
-        <v>2433.906003200055</v>
+        <v>2000.265599923204</v>
       </c>
       <c r="X29" t="n">
-        <v>2022.186004367803</v>
+        <v>1588.545601090952</v>
       </c>
       <c r="Y29" t="n">
-        <v>1754.312797850834</v>
+        <v>1183.208331045842</v>
       </c>
     </row>
     <row r="30">
@@ -6542,10 +6542,10 @@
         <v>80.29966308312362</v>
       </c>
       <c r="J30" t="n">
-        <v>421.7811819283253</v>
+        <v>159.3389879233877</v>
       </c>
       <c r="K30" t="n">
-        <v>569.5721362965736</v>
+        <v>307.129942291636</v>
       </c>
       <c r="L30" t="n">
         <v>775.8227259189734</v>
@@ -6600,19 +6600,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C31" t="n">
-        <v>935.2978981851351</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119058</v>
+        <v>771.9811253119059</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7729194647593</v>
+        <v>605.7729194647594</v>
       </c>
       <c r="F31" t="n">
         <v>433.9111452393198</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5545278431409</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H31" t="n">
         <v>132.7632098856423</v>
@@ -6621,25 +6621,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J31" t="n">
-        <v>179.9501949187404</v>
+        <v>102.0284782705196</v>
       </c>
       <c r="K31" t="n">
-        <v>509.0007335470286</v>
+        <v>431.0790168988078</v>
       </c>
       <c r="L31" t="n">
-        <v>994.8841173302417</v>
+        <v>916.9624006820208</v>
       </c>
       <c r="M31" t="n">
-        <v>1524.395656430017</v>
+        <v>1446.473939781796</v>
       </c>
       <c r="N31" t="n">
-        <v>2036.923834413417</v>
+        <v>1959.002117765197</v>
       </c>
       <c r="O31" t="n">
-        <v>2517.080181484751</v>
+        <v>2439.15846483653</v>
       </c>
       <c r="P31" t="n">
-        <v>2914.405931706205</v>
+        <v>2836.484215057984</v>
       </c>
       <c r="Q31" t="n">
         <v>3003.534554078097</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>695.9251649683972</v>
+        <v>2017.716759933933</v>
       </c>
       <c r="C32" t="n">
-        <v>337.3830269021693</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="D32" t="n">
-        <v>337.3830269021693</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="E32" t="n">
-        <v>337.3830269021693</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="F32" t="n">
-        <v>337.3830269021693</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G32" t="n">
         <v>337.3830269021693</v>
@@ -6700,28 +6700,28 @@
         <v>101.7102154067077</v>
       </c>
       <c r="J32" t="n">
-        <v>631.2805511005022</v>
+        <v>239.5513323928761</v>
       </c>
       <c r="K32" t="n">
-        <v>867.8308599910613</v>
+        <v>652.911043773455</v>
       </c>
       <c r="L32" t="n">
-        <v>1140.346868514893</v>
+        <v>925.4270522972869</v>
       </c>
       <c r="M32" t="n">
-        <v>1883.721670649222</v>
+        <v>1233.799903578104</v>
       </c>
       <c r="N32" t="n">
-        <v>2197.834060919214</v>
+        <v>1547.912293848095</v>
       </c>
       <c r="O32" t="n">
-        <v>2492.274503919738</v>
+        <v>1842.352736848619</v>
       </c>
       <c r="P32" t="n">
-        <v>2737.9661972607</v>
+        <v>2585.727538982948</v>
       </c>
       <c r="Q32" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R32" t="n">
         <v>3003.534554078097</v>
@@ -6736,16 +6736,16 @@
         <v>2686.711562710693</v>
       </c>
       <c r="V32" t="n">
-        <v>2329.222147836943</v>
+        <v>2437.565124225463</v>
       </c>
       <c r="W32" t="n">
-        <v>1932.83079813729</v>
+        <v>2437.565124225463</v>
       </c>
       <c r="X32" t="n">
-        <v>1521.110799305037</v>
+        <v>2437.565124225463</v>
       </c>
       <c r="Y32" t="n">
-        <v>1115.773529259927</v>
+        <v>2437.565124225463</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>103.7569689275355</v>
+        <v>80.29966308312362</v>
       </c>
       <c r="J33" t="n">
-        <v>182.7962937677995</v>
+        <v>421.7811819283253</v>
       </c>
       <c r="K33" t="n">
-        <v>330.5872481360478</v>
+        <v>569.5721362965736</v>
       </c>
       <c r="L33" t="n">
-        <v>536.8378377584477</v>
+        <v>775.8227259189734</v>
       </c>
       <c r="M33" t="n">
-        <v>780.668038713949</v>
+        <v>1019.652926874475</v>
       </c>
       <c r="N33" t="n">
-        <v>1033.293104348145</v>
+        <v>1272.27799250867</v>
       </c>
       <c r="O33" t="n">
-        <v>1260.784968371004</v>
+        <v>1499.76985653153</v>
       </c>
       <c r="P33" t="n">
-        <v>1440.225622021826</v>
+        <v>1679.210510182351</v>
       </c>
       <c r="Q33" t="n">
-        <v>1685.594465388265</v>
+        <v>1791.049965673171</v>
       </c>
       <c r="R33" t="n">
         <v>1832.965147628227</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1107.270461306219</v>
+        <v>1107.27046130622</v>
       </c>
       <c r="C34" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851355</v>
       </c>
       <c r="D34" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119062</v>
       </c>
       <c r="E34" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647595</v>
       </c>
       <c r="F34" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393199</v>
       </c>
       <c r="G34" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H34" t="n">
-        <v>132.7632098856423</v>
+        <v>132.763209885642</v>
       </c>
       <c r="I34" t="n">
         <v>60.07069108156194</v>
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1147.523817309419</v>
+        <v>88.3558606061539</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.523817309419</v>
+        <v>88.3558606061539</v>
       </c>
       <c r="D35" t="n">
-        <v>1147.523817309419</v>
+        <v>88.3558606061539</v>
       </c>
       <c r="E35" t="n">
-        <v>1147.523817309419</v>
+        <v>88.3558606061539</v>
       </c>
       <c r="F35" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="G35" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="H35" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103622</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610006</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848324</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M35" t="n">
         <v>1017.95803136565</v>
@@ -6958,31 +6958,31 @@
         <v>1872.202557977127</v>
       </c>
       <c r="Q35" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272601</v>
       </c>
       <c r="R35" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="S35" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T35" t="n">
-        <v>1925.631778790233</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U35" t="n">
-        <v>1667.437443868903</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V35" t="n">
-        <v>1667.437443868903</v>
+        <v>1721.652843474699</v>
       </c>
       <c r="W35" t="n">
-        <v>1271.04609416925</v>
+        <v>1325.261493775046</v>
       </c>
       <c r="X35" t="n">
-        <v>1271.04609416925</v>
+        <v>913.5414949427936</v>
       </c>
       <c r="Y35" t="n">
-        <v>1147.523817309419</v>
+        <v>508.204224897684</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H36" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I36" t="n">
         <v>86.44169614186401</v>
@@ -7019,25 +7019,25 @@
         <v>165.4810209821281</v>
       </c>
       <c r="K36" t="n">
-        <v>313.2719753503764</v>
+        <v>446.8013632259961</v>
       </c>
       <c r="L36" t="n">
-        <v>519.5225649727762</v>
+        <v>653.0519528483959</v>
       </c>
       <c r="M36" t="n">
-        <v>763.3527659282777</v>
+        <v>896.8821538038974</v>
       </c>
       <c r="N36" t="n">
-        <v>1015.977831562473</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O36" t="n">
-        <v>1243.469695585332</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P36" t="n">
-        <v>1422.910349236154</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R36" t="n">
         <v>1815.649874842555</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>582.8040783007948</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="C37" t="n">
-        <v>582.8040783007948</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="D37" t="n">
-        <v>582.8040783007948</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="E37" t="n">
-        <v>416.5958724536483</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F37" t="n">
         <v>416.5958724536483</v>
@@ -7092,28 +7092,28 @@
         <v>115.4479370999708</v>
       </c>
       <c r="I37" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="J37" t="n">
-        <v>84.71320548484809</v>
+        <v>84.71320548484812</v>
       </c>
       <c r="K37" t="n">
-        <v>166.4811349991142</v>
+        <v>166.4811349991143</v>
       </c>
       <c r="L37" t="n">
-        <v>652.3645187823272</v>
+        <v>481.8999867656341</v>
       </c>
       <c r="M37" t="n">
-        <v>944.9015090679522</v>
+        <v>1010.998288177279</v>
       </c>
       <c r="N37" t="n">
-        <v>1059.396764209472</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O37" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232013</v>
       </c>
       <c r="P37" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q37" t="n">
         <v>2137.770914794524</v>
@@ -7122,25 +7122,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S37" t="n">
-        <v>2137.770914794524</v>
+        <v>1983.326552563499</v>
       </c>
       <c r="T37" t="n">
-        <v>1898.278526888668</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U37" t="n">
-        <v>1618.14318851495</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V37" t="n">
-        <v>1336.431721122979</v>
+        <v>1181.987358891954</v>
       </c>
       <c r="W37" t="n">
-        <v>1241.876711877313</v>
+        <v>907.1349550644668</v>
       </c>
       <c r="X37" t="n">
-        <v>999.3128153231185</v>
+        <v>664.5710585102719</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.9700470128605</v>
+        <v>588.4576466790879</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1598.06960576594</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="C38" t="n">
-        <v>1171.16887577924</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="D38" t="n">
-        <v>1171.16887577924</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="E38" t="n">
-        <v>745.1919359270976</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="F38" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="G38" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="H38" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I38" t="n">
         <v>84.39494262103619</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K38" t="n">
         <v>437.0691715610005</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848324</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M38" t="n">
         <v>1017.95803136565</v>
@@ -7195,31 +7195,31 @@
         <v>1872.202557977127</v>
       </c>
       <c r="Q38" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272601</v>
       </c>
       <c r="R38" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="S38" t="n">
-        <v>2079.14225834845</v>
+        <v>2084.026922672277</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.003122344158</v>
+        <v>1871.887786667986</v>
       </c>
       <c r="U38" t="n">
-        <v>1867.003122344158</v>
+        <v>1613.693451746657</v>
       </c>
       <c r="V38" t="n">
-        <v>1867.003122344158</v>
+        <v>1256.204036872906</v>
       </c>
       <c r="W38" t="n">
-        <v>1867.003122344158</v>
+        <v>859.8126871732529</v>
       </c>
       <c r="X38" t="n">
-        <v>1598.06960576594</v>
+        <v>448.0926883410002</v>
       </c>
       <c r="Y38" t="n">
-        <v>1598.06960576594</v>
+        <v>42.75541829589049</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H39" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I39" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J39" t="n">
-        <v>404.4659091426539</v>
+        <v>165.4810209821281</v>
       </c>
       <c r="K39" t="n">
-        <v>552.2568635109022</v>
+        <v>313.2719753503764</v>
       </c>
       <c r="L39" t="n">
-        <v>758.5074531333021</v>
+        <v>519.5225649727762</v>
       </c>
       <c r="M39" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038974</v>
       </c>
       <c r="N39" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O39" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P39" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R39" t="n">
         <v>1815.649874842555</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1017.262669716467</v>
+        <v>402.5066837189738</v>
       </c>
       <c r="C40" t="n">
-        <v>845.2901065953833</v>
+        <v>402.5066837189738</v>
       </c>
       <c r="D40" t="n">
-        <v>681.9733337221541</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="E40" t="n">
-        <v>515.7651278750076</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="F40" t="n">
-        <v>343.903353649568</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="G40" t="n">
-        <v>178.5467362533892</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="H40" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I40" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="J40" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484812</v>
       </c>
       <c r="K40" t="n">
-        <v>458.9956455541966</v>
+        <v>166.4811349991143</v>
       </c>
       <c r="L40" t="n">
-        <v>944.8790293374096</v>
+        <v>481.8999867656341</v>
       </c>
       <c r="M40" t="n">
-        <v>1473.977330749054</v>
+        <v>1010.998288177279</v>
       </c>
       <c r="N40" t="n">
-        <v>1588.472585890574</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O40" t="n">
-        <v>1690.926608658705</v>
+        <v>2003.682813232013</v>
       </c>
       <c r="P40" t="n">
         <v>2088.252358880159</v>
@@ -7356,28 +7356,28 @@
         <v>2137.770914794524</v>
       </c>
       <c r="R40" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S40" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T40" t="n">
-        <v>1891.723027423367</v>
+        <v>1898.278526888669</v>
       </c>
       <c r="U40" t="n">
-        <v>1891.723027423367</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V40" t="n">
-        <v>1610.011560031395</v>
+        <v>1336.431721122979</v>
       </c>
       <c r="W40" t="n">
-        <v>1486.16933458092</v>
+        <v>1061.579317295492</v>
       </c>
       <c r="X40" t="n">
-        <v>1243.605438026725</v>
+        <v>819.0154207412974</v>
       </c>
       <c r="Y40" t="n">
-        <v>1017.262669716467</v>
+        <v>592.6726524310394</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1262.084989471087</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="C41" t="n">
-        <v>1262.084989471087</v>
+        <v>1652.24152836175</v>
       </c>
       <c r="D41" t="n">
-        <v>1262.084989471087</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="E41" t="n">
-        <v>836.1080496189448</v>
+        <v>870.211481488812</v>
       </c>
       <c r="F41" t="n">
         <v>445.0872996782122</v>
       </c>
       <c r="G41" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103622</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610006</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L41" t="n">
         <v>709.5851800848325</v>
@@ -7432,7 +7432,7 @@
         <v>1872.202557977127</v>
       </c>
       <c r="Q41" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272601</v>
       </c>
       <c r="R41" t="n">
         <v>2137.770914794524</v>
@@ -7453,10 +7453,10 @@
         <v>2079.14225834845</v>
       </c>
       <c r="X41" t="n">
-        <v>1667.422259516197</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="Y41" t="n">
-        <v>1262.084989471087</v>
+        <v>2079.14225834845</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I42" t="n">
-        <v>62.98439029745217</v>
+        <v>62.98439029745218</v>
       </c>
       <c r="J42" t="n">
-        <v>299.0104088577478</v>
+        <v>404.4659091426538</v>
       </c>
       <c r="K42" t="n">
-        <v>446.8013632259962</v>
+        <v>552.2568635109021</v>
       </c>
       <c r="L42" t="n">
-        <v>653.051952848396</v>
+        <v>758.507453133302</v>
       </c>
       <c r="M42" t="n">
-        <v>896.8821538038975</v>
+        <v>1002.337654088803</v>
       </c>
       <c r="N42" t="n">
-        <v>1149.507219438093</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O42" t="n">
-        <v>1376.999083460952</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P42" t="n">
-        <v>1556.439737111774</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q42" t="n">
-        <v>1668.279192602594</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R42" t="n">
         <v>1815.649874842555</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>718.1545788857393</v>
+        <v>670.8035880811592</v>
       </c>
       <c r="C43" t="n">
-        <v>546.1820157646553</v>
+        <v>670.8035880811592</v>
       </c>
       <c r="D43" t="n">
-        <v>546.1820157646553</v>
+        <v>670.8035880811592</v>
       </c>
       <c r="E43" t="n">
-        <v>379.9738099175088</v>
+        <v>515.7651278750076</v>
       </c>
       <c r="F43" t="n">
-        <v>208.1120356920692</v>
+        <v>343.903353649568</v>
       </c>
       <c r="G43" t="n">
-        <v>42.75541829589048</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H43" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="J43" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K43" t="n">
-        <v>413.7637441131363</v>
+        <v>491.6854607613572</v>
       </c>
       <c r="L43" t="n">
-        <v>899.6471278963493</v>
+        <v>977.5688445445702</v>
       </c>
       <c r="M43" t="n">
-        <v>1015.623186533303</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N43" t="n">
-        <v>1528.151364516703</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O43" t="n">
-        <v>1852.309315854113</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P43" t="n">
         <v>1936.87886150226</v>
@@ -7593,28 +7593,28 @@
         <v>2137.770914794524</v>
       </c>
       <c r="R43" t="n">
-        <v>2137.770914794524</v>
+        <v>2131.215415329223</v>
       </c>
       <c r="S43" t="n">
-        <v>2137.770914794524</v>
+        <v>2131.215415329223</v>
       </c>
       <c r="T43" t="n">
-        <v>2137.770914794524</v>
+        <v>1891.723027423367</v>
       </c>
       <c r="U43" t="n">
-        <v>1933.791083681716</v>
+        <v>1611.587689049649</v>
       </c>
       <c r="V43" t="n">
-        <v>1652.079616289745</v>
+        <v>1329.876221657678</v>
       </c>
       <c r="W43" t="n">
-        <v>1377.227212462258</v>
+        <v>1329.876221657678</v>
       </c>
       <c r="X43" t="n">
-        <v>1134.663315908063</v>
+        <v>1087.312325103483</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.320547597805</v>
+        <v>860.9695567932249</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1297.112211475512</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="C44" t="n">
-        <v>870.211481488812</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="D44" t="n">
-        <v>870.211481488812</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="E44" t="n">
-        <v>870.211481488812</v>
+        <v>1147.523817309419</v>
       </c>
       <c r="F44" t="n">
-        <v>445.0872996782122</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H44" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103622</v>
       </c>
       <c r="J44" t="n">
         <v>222.2360596072046</v>
@@ -7654,7 +7654,7 @@
         <v>437.0691715610005</v>
       </c>
       <c r="L44" t="n">
-        <v>709.5851800848324</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M44" t="n">
         <v>1017.95803136565</v>
@@ -7669,7 +7669,7 @@
         <v>1872.202557977127</v>
       </c>
       <c r="Q44" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272601</v>
       </c>
       <c r="R44" t="n">
         <v>2137.770914794524</v>
@@ -7678,22 +7678,22 @@
         <v>2079.14225834845</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.003122344158</v>
+        <v>1867.003122344159</v>
       </c>
       <c r="U44" t="n">
-        <v>1867.003122344158</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V44" t="n">
-        <v>1867.003122344158</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="W44" t="n">
-        <v>1867.003122344158</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="X44" t="n">
-        <v>1867.003122344158</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="Y44" t="n">
-        <v>1461.665852299049</v>
+        <v>1573.500757161562</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H45" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I45" t="n">
-        <v>86.44169614186401</v>
+        <v>62.98439029745218</v>
       </c>
       <c r="J45" t="n">
-        <v>165.4810209821281</v>
+        <v>142.0237151377162</v>
       </c>
       <c r="K45" t="n">
-        <v>313.2719753503764</v>
+        <v>289.8146695059645</v>
       </c>
       <c r="L45" t="n">
-        <v>519.5225649727762</v>
+        <v>496.0652591283643</v>
       </c>
       <c r="M45" t="n">
-        <v>896.8821538038975</v>
+        <v>739.8954600838658</v>
       </c>
       <c r="N45" t="n">
-        <v>1149.507219438093</v>
+        <v>992.5205257180614</v>
       </c>
       <c r="O45" t="n">
-        <v>1376.999083460952</v>
+        <v>1220.012389740921</v>
       </c>
       <c r="P45" t="n">
-        <v>1556.439737111774</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q45" t="n">
-        <v>1668.279192602594</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R45" t="n">
         <v>1815.649874842555</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>765.4786218696297</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="C46" t="n">
-        <v>593.5060587485457</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="D46" t="n">
-        <v>430.1892858753164</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="E46" t="n">
-        <v>263.9810800281699</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F46" t="n">
-        <v>92.11930580273034</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G46" t="n">
-        <v>92.11930580273034</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H46" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I46" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="J46" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K46" t="n">
-        <v>413.7637441131363</v>
+        <v>491.6854607613572</v>
       </c>
       <c r="L46" t="n">
-        <v>899.6471278963493</v>
+        <v>977.5688445445702</v>
       </c>
       <c r="M46" t="n">
-        <v>1015.623186533303</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N46" t="n">
-        <v>1523.526466160679</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O46" t="n">
-        <v>2003.682813232012</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P46" t="n">
-        <v>2088.252358880159</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q46" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R46" t="n">
-        <v>2137.770914794524</v>
+        <v>2131.215415329223</v>
       </c>
       <c r="S46" t="n">
-        <v>1983.326552563498</v>
+        <v>1976.771053098197</v>
       </c>
       <c r="T46" t="n">
-        <v>1743.834164657643</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="U46" t="n">
-        <v>1463.698826283925</v>
+        <v>1668.600757655888</v>
       </c>
       <c r="V46" t="n">
-        <v>1181.987358891953</v>
+        <v>1386.889290263917</v>
       </c>
       <c r="W46" t="n">
-        <v>1181.987358891953</v>
+        <v>1386.889290263917</v>
       </c>
       <c r="X46" t="n">
-        <v>1181.987358891953</v>
+        <v>1144.325393709722</v>
       </c>
       <c r="Y46" t="n">
-        <v>955.6445905816954</v>
+        <v>917.9826253994637</v>
       </c>
     </row>
   </sheetData>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>158.5724178990221</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.2951947219102</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>142.5666799769532</v>
+        <v>298.1370800999573</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>158.5724178990219</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9084,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>76.9645388356443</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>417.2951947219103</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>357.9105776278333</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>265.0931252575128</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.2951947219102</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>186.8389690765189</v>
+        <v>209.3311033197065</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>134.8781695713332</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.5724178990222</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9567,19 +9567,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>417.2951947219102</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>165.7705156158947</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>282.8953427940879</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.3324725154292</v>
+        <v>461.3324725154296</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>380.1908016072373</v>
+        <v>267.2984471422152</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
@@ -9810,7 +9810,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>268.6251448311422</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
@@ -9877,13 +9877,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>461.3324725154295</v>
       </c>
       <c r="L26" t="n">
-        <v>21.93656256238717</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>439.3959099530422</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>136.8880587814648</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
@@ -10044,7 +10044,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>367.8699076461909</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>381.4036089771761</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>475.6149430409061</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>461.3324725154296</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>265.0931252575127</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>265.0931252575128</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.01016813891583</v>
+        <v>118.7189728340884</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>21.93656256238711</v>
+        <v>200.5319186129122</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>439.3959099530422</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>502.7102109023909</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>265.0931252575127</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>134.8781695713333</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>134.878169571333</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>241.398876929824</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,22 +10749,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>208.0044056307796</v>
       </c>
       <c r="M37" t="n">
-        <v>178.3443754026985</v>
+        <v>417.2951947219104</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>134.878169571333</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>216.7603978857187</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>208.0044056307796</v>
       </c>
       <c r="M40" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219104</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>158.5724178990218</v>
+        <v>265.0931252575127</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
@@ -11229,13 +11229,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>223.9433621911917</v>
+        <v>231.3726567572042</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
         <v>152.9025226039384</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>134.8781695713332</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>265.0931252575126</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
@@ -11466,16 +11466,16 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>397.3818429150059</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>231.3726567572042</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>247.4571852399663</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -23272,7 +23272,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
         <v>274.5392124624013</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>210.0177446442482</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>231.5641673328652</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>23.14429855141657</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>45.34486040973673</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>66.56711865626232</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>361.362373253374</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>152.4157908193519</v>
       </c>
       <c r="E16" t="n">
-        <v>29.58528945491665</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>75.86135493169456</v>
       </c>
       <c r="F17" t="n">
-        <v>382.0323710954257</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>398.3085625684984</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23901,10 +23901,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>143.6321042835706</v>
       </c>
       <c r="G19" t="n">
-        <v>137.082318015914</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H19" t="n">
         <v>134.4334047779237</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>83.90843673637909</v>
       </c>
       <c r="G20" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
-        <v>263.9126937226446</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>210.0177446442482</v>
@@ -24031,10 +24031,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24135,19 +24135,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>147.9452924264237</v>
       </c>
       <c r="H22" t="n">
-        <v>104.2958123943703</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>25.99473229706405</v>
+        <v>259.8736599601331</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24451,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H26" t="n">
         <v>274.5392124624013</v>
@@ -24505,7 +24505,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>63.56459459445193</v>
+        <v>86.97320247957464</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24685,19 +24685,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>58.04236988161365</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U29" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>8.718083886441832</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>136.0894228928597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>67.67500600126726</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>107.2595466246356</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -25165,13 +25165,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>375.728502105333</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>278.9968432534261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -25320,10 +25320,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>6.48994447064856</v>
       </c>
       <c r="S37" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>178.4944206360032</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>148.7270629142833</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>4.835817680588946</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>141.3586174314938</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>139.3760600810467</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I40" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603953</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S40" t="n">
         <v>152.8999186087154</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>149.5000765932415</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,16 +25630,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>66.56711865626187</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>33.76239755116842</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>11.05804818458486</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603953</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.48994447064856</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T43" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>75.39395218830111</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>252.7417762333133</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>318.9595707663582</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>85.56315614615227</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.48994447064856</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>209.3428565288918</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>295474.7255287347</v>
+        <v>295474.7255287349</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>409484.493132464</v>
+        <v>409484.4931324641</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>409484.4931324641</v>
+        <v>409484.493132464</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>409484.493132464</v>
+        <v>409484.4931324641</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>409484.4931324641</v>
+        <v>409484.4931324642</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>295474.7255287347</v>
+        <v>295474.7255287348</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>545069.3508420008</v>
+      </c>
+      <c r="C2" t="n">
+        <v>545069.350842001</v>
+      </c>
+      <c r="D2" t="n">
         <v>545069.3508420009</v>
       </c>
-      <c r="C2" t="n">
-        <v>545069.3508420008</v>
-      </c>
-      <c r="D2" t="n">
-        <v>545069.3508420008</v>
-      </c>
       <c r="E2" t="n">
+        <v>324126.1116988397</v>
+      </c>
+      <c r="F2" t="n">
         <v>324126.1116988398</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>324126.1116988397</v>
+      </c>
+      <c r="H2" t="n">
         <v>324126.1116988399</v>
       </c>
-      <c r="G2" t="n">
-        <v>324126.1116988398</v>
-      </c>
-      <c r="H2" t="n">
-        <v>324126.1116988398</v>
-      </c>
       <c r="I2" t="n">
-        <v>406795.3570472561</v>
+        <v>406795.3570472562</v>
       </c>
       <c r="J2" t="n">
+        <v>406795.3570472558</v>
+      </c>
+      <c r="K2" t="n">
         <v>406795.357047256</v>
-      </c>
-      <c r="K2" t="n">
-        <v>406795.3570472559</v>
       </c>
       <c r="L2" t="n">
         <v>406795.3570472561</v>
@@ -26349,13 +26349,13 @@
         <v>324126.1116988398</v>
       </c>
       <c r="N2" t="n">
-        <v>324126.1116988398</v>
+        <v>324126.1116988399</v>
       </c>
       <c r="O2" t="n">
-        <v>324126.1116988398</v>
+        <v>324126.1116988397</v>
       </c>
       <c r="P2" t="n">
-        <v>324126.1116988398</v>
+        <v>324126.1116988396</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556689.6559222537</v>
+        <v>556689.6559222536</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048172</v>
+        <v>57556.18318048178</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160778</v>
+        <v>79247.32527160784</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,25 +26429,25 @@
         <v>22969.16992568474</v>
       </c>
       <c r="F4" t="n">
-        <v>22969.16992568473</v>
+        <v>22969.16992568474</v>
       </c>
       <c r="G4" t="n">
         <v>22969.16992568474</v>
       </c>
       <c r="H4" t="n">
-        <v>22969.16992568474</v>
+        <v>22969.16992568473</v>
       </c>
       <c r="I4" t="n">
-        <v>67495.91160320499</v>
+        <v>67495.91160320501</v>
       </c>
       <c r="J4" t="n">
-        <v>67495.91160320499</v>
+        <v>67495.91160320502</v>
       </c>
       <c r="K4" t="n">
         <v>67495.91160320501</v>
       </c>
       <c r="L4" t="n">
-        <v>67495.91160320501</v>
+        <v>67495.91160320499</v>
       </c>
       <c r="M4" t="n">
         <v>22969.16992568474</v>
@@ -26456,10 +26456,10 @@
         <v>22969.16992568474</v>
       </c>
       <c r="O4" t="n">
-        <v>22969.16992568473</v>
+        <v>22969.16992568474</v>
       </c>
       <c r="P4" t="n">
-        <v>22969.16992568473</v>
+        <v>22969.16992568474</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="F5" t="n">
         <v>43269.71441650125</v>
       </c>
       <c r="G5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="H5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="I5" t="n">
         <v>56429.32173361156</v>
@@ -26502,16 +26502,16 @@
         <v>56429.32173361156</v>
       </c>
       <c r="M5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650126</v>
       </c>
       <c r="N5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650126</v>
       </c>
       <c r="O5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650126</v>
       </c>
       <c r="P5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650126</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186739.1210952951</v>
+        <v>186717.4074537986</v>
       </c>
       <c r="C6" t="n">
-        <v>186739.1210952949</v>
+        <v>186717.4074537988</v>
       </c>
       <c r="D6" t="n">
-        <v>186739.1210952949</v>
+        <v>186717.4074537987</v>
       </c>
       <c r="E6" t="n">
-        <v>-298802.4285655999</v>
+        <v>-299405.5717837887</v>
       </c>
       <c r="F6" t="n">
-        <v>257887.227356654</v>
+        <v>257284.0841384649</v>
       </c>
       <c r="G6" t="n">
-        <v>257887.2273566538</v>
+        <v>257284.0841384649</v>
       </c>
       <c r="H6" t="n">
-        <v>257887.2273566538</v>
+        <v>257284.084138465</v>
       </c>
       <c r="I6" t="n">
-        <v>225313.9405299579</v>
+        <v>224928.3479574227</v>
       </c>
       <c r="J6" t="n">
-        <v>282870.1237104395</v>
+        <v>282484.5311379041</v>
       </c>
       <c r="K6" t="n">
-        <v>282870.1237104393</v>
+        <v>282484.5311379043</v>
       </c>
       <c r="L6" t="n">
-        <v>282870.1237104395</v>
+        <v>282484.5311379044</v>
       </c>
       <c r="M6" t="n">
-        <v>178639.902085046</v>
+        <v>178036.7588668571</v>
       </c>
       <c r="N6" t="n">
-        <v>257887.2273566538</v>
+        <v>257284.084138465</v>
       </c>
       <c r="O6" t="n">
-        <v>257887.2273566538</v>
+        <v>257284.0841384648</v>
       </c>
       <c r="P6" t="n">
-        <v>257887.2273566538</v>
+        <v>257284.0841384648</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="F3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="G3" t="n">
         <v>494.2934179644262</v>
@@ -26770,16 +26770,16 @@
         <v>494.2934179644262</v>
       </c>
       <c r="M3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644263</v>
       </c>
       <c r="N3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644263</v>
       </c>
       <c r="O3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644263</v>
       </c>
       <c r="P3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644263</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="F4" t="n">
         <v>534.442728698631</v>
       </c>
       <c r="G4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="H4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="I4" t="n">
-        <v>750.8836385195241</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="J4" t="n">
         <v>750.8836385195242</v>
@@ -26822,16 +26822,16 @@
         <v>750.8836385195242</v>
       </c>
       <c r="M4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986311</v>
       </c>
       <c r="N4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986311</v>
       </c>
       <c r="O4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986311</v>
       </c>
       <c r="P4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986311</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>216.4409098208931</v>
+        <v>216.4409098208934</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777378</v>
+        <v>318.0018188777381</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I11" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J11" t="n">
         <v>168.6534109867667</v>
@@ -31767,16 +31767,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L11" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M11" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N11" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O11" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P11" t="n">
         <v>285.7487894273646</v>
@@ -31788,7 +31788,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S11" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T11" t="n">
         <v>8.698570601564924</v>
@@ -31837,7 +31837,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I12" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J12" t="n">
         <v>100.4488161921859</v>
@@ -31870,7 +31870,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T12" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U12" t="n">
         <v>0.06994718178741882</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H13" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I13" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J13" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K13" t="n">
         <v>103.5585226489404</v>
@@ -31937,7 +31937,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P13" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q13" t="n">
         <v>74.63830611262834</v>
@@ -31949,10 +31949,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T13" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.987109217947441</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H14" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I14" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J14" t="n">
         <v>168.6534109867667</v>
@@ -32004,16 +32004,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L14" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M14" t="n">
-        <v>348.9189914659138</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N14" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O14" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P14" t="n">
         <v>285.7487894273646</v>
@@ -32025,10 +32025,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S14" t="n">
-        <v>45.28125130397735</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T14" t="n">
-        <v>8.698570601564926</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U14" t="n">
         <v>0.1589687374357952</v>
@@ -32074,7 +32074,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I15" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J15" t="n">
         <v>100.4488161921859</v>
@@ -32083,7 +32083,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L15" t="n">
-        <v>230.8490156257446</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M15" t="n">
         <v>269.3899127906122</v>
@@ -32092,25 +32092,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O15" t="n">
-        <v>252.9616513614739</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P15" t="n">
-        <v>203.0240267107094</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q15" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R15" t="n">
-        <v>66.0114870255134</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S15" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T15" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06994718178741884</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H16" t="n">
-        <v>7.924901029003428</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I16" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J16" t="n">
-        <v>63.01835920507119</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K16" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L16" t="n">
-        <v>132.5192550391841</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M16" t="n">
         <v>139.7229738682065</v>
@@ -32174,22 +32174,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P16" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.63830611262836</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R16" t="n">
-        <v>40.07828270905002</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S16" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T16" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04861902471781247</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.987109217947441</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H17" t="n">
         <v>20.35048227830423</v>
@@ -32244,7 +32244,7 @@
         <v>313.580737911241</v>
       </c>
       <c r="M17" t="n">
-        <v>348.9189914659138</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N17" t="n">
         <v>354.564865531407</v>
@@ -32262,10 +32262,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S17" t="n">
-        <v>45.28125130397735</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T17" t="n">
-        <v>8.698570601564926</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U17" t="n">
         <v>0.1589687374357952</v>
@@ -32320,7 +32320,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L18" t="n">
-        <v>230.8490156257446</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M18" t="n">
         <v>269.3899127906122</v>
@@ -32329,16 +32329,16 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O18" t="n">
-        <v>252.9616513614739</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P18" t="n">
-        <v>203.0240267107094</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q18" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R18" t="n">
-        <v>66.0114870255134</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S18" t="n">
         <v>19.74842099131456</v>
@@ -32347,7 +32347,7 @@
         <v>4.285430670842524</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06994718178741884</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,19 +32387,19 @@
         <v>0.8913487864932275</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003428</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I19" t="n">
         <v>26.80528896108725</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507119</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L19" t="n">
-        <v>132.5192550391841</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M19" t="n">
         <v>139.7229738682065</v>
@@ -32414,10 +32414,10 @@
         <v>107.8045841409627</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.63830611262836</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R19" t="n">
-        <v>40.07828270905002</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S19" t="n">
         <v>15.53377839734106</v>
@@ -32426,7 +32426,7 @@
         <v>3.808490269561971</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04861902471781247</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33654,13 +33654,13 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I35" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491879</v>
       </c>
       <c r="J35" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867668</v>
       </c>
       <c r="K35" t="n">
-        <v>252.7677441824819</v>
+        <v>252.767744182482</v>
       </c>
       <c r="L35" t="n">
         <v>313.580737911241</v>
@@ -33675,7 +33675,7 @@
         <v>334.8055482454421</v>
       </c>
       <c r="P35" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273647</v>
       </c>
       <c r="Q35" t="n">
         <v>214.5854405596218</v>
@@ -33684,7 +33684,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S35" t="n">
-        <v>45.28125130397735</v>
+        <v>45.28125130397736</v>
       </c>
       <c r="T35" t="n">
         <v>8.698570601564926</v>
@@ -33733,7 +33733,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I36" t="n">
-        <v>36.60569180208251</v>
+        <v>36.60569180208252</v>
       </c>
       <c r="J36" t="n">
         <v>100.4488161921859</v>
@@ -33745,10 +33745,10 @@
         <v>230.8490156257446</v>
       </c>
       <c r="M36" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906123</v>
       </c>
       <c r="N36" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874766</v>
       </c>
       <c r="O36" t="n">
         <v>252.9616513614739</v>
@@ -33769,7 +33769,7 @@
         <v>4.285430670842524</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06994718178741884</v>
+        <v>0.06994718178741885</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932276</v>
       </c>
       <c r="H37" t="n">
-        <v>7.924901029003428</v>
+        <v>7.924901029003429</v>
       </c>
       <c r="I37" t="n">
         <v>26.80528896108725</v>
@@ -33824,7 +33824,7 @@
         <v>132.5192550391841</v>
       </c>
       <c r="M37" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682066</v>
       </c>
       <c r="N37" t="n">
         <v>136.4006738458228</v>
@@ -33836,7 +33836,7 @@
         <v>107.8045841409627</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.63830611262836</v>
+        <v>74.63830611262837</v>
       </c>
       <c r="R37" t="n">
         <v>40.07828270905002</v>
@@ -33845,7 +33845,7 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T37" t="n">
-        <v>3.808490269561971</v>
+        <v>3.808490269561972</v>
       </c>
       <c r="U37" t="n">
         <v>0.04861902471781247</v>
@@ -33891,13 +33891,13 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491879</v>
       </c>
       <c r="J38" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867668</v>
       </c>
       <c r="K38" t="n">
-        <v>252.7677441824819</v>
+        <v>252.767744182482</v>
       </c>
       <c r="L38" t="n">
         <v>313.580737911241</v>
@@ -33912,7 +33912,7 @@
         <v>334.8055482454421</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273647</v>
       </c>
       <c r="Q38" t="n">
         <v>214.5854405596218</v>
@@ -33921,7 +33921,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S38" t="n">
-        <v>45.28125130397735</v>
+        <v>45.28125130397736</v>
       </c>
       <c r="T38" t="n">
         <v>8.698570601564926</v>
@@ -33970,7 +33970,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I39" t="n">
-        <v>36.60569180208251</v>
+        <v>36.60569180208252</v>
       </c>
       <c r="J39" t="n">
         <v>100.4488161921859</v>
@@ -33982,10 +33982,10 @@
         <v>230.8490156257446</v>
       </c>
       <c r="M39" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906123</v>
       </c>
       <c r="N39" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874766</v>
       </c>
       <c r="O39" t="n">
         <v>252.9616513614739</v>
@@ -34006,7 +34006,7 @@
         <v>4.285430670842524</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06994718178741884</v>
+        <v>0.06994718178741885</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932276</v>
       </c>
       <c r="H40" t="n">
-        <v>7.924901029003428</v>
+        <v>7.924901029003429</v>
       </c>
       <c r="I40" t="n">
         <v>26.80528896108725</v>
@@ -34061,7 +34061,7 @@
         <v>132.5192550391841</v>
       </c>
       <c r="M40" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682066</v>
       </c>
       <c r="N40" t="n">
         <v>136.4006738458228</v>
@@ -34073,7 +34073,7 @@
         <v>107.8045841409627</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.63830611262836</v>
+        <v>74.63830611262837</v>
       </c>
       <c r="R40" t="n">
         <v>40.07828270905002</v>
@@ -34082,7 +34082,7 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T40" t="n">
-        <v>3.808490269561971</v>
+        <v>3.808490269561972</v>
       </c>
       <c r="U40" t="n">
         <v>0.04861902471781247</v>
@@ -34128,13 +34128,13 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491879</v>
       </c>
       <c r="J41" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867668</v>
       </c>
       <c r="K41" t="n">
-        <v>252.7677441824819</v>
+        <v>252.767744182482</v>
       </c>
       <c r="L41" t="n">
         <v>313.580737911241</v>
@@ -34149,7 +34149,7 @@
         <v>334.8055482454421</v>
       </c>
       <c r="P41" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273647</v>
       </c>
       <c r="Q41" t="n">
         <v>214.5854405596218</v>
@@ -34158,7 +34158,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S41" t="n">
-        <v>45.28125130397735</v>
+        <v>45.28125130397736</v>
       </c>
       <c r="T41" t="n">
         <v>8.698570601564926</v>
@@ -34207,7 +34207,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I42" t="n">
-        <v>36.60569180208251</v>
+        <v>36.60569180208252</v>
       </c>
       <c r="J42" t="n">
         <v>100.4488161921859</v>
@@ -34219,10 +34219,10 @@
         <v>230.8490156257446</v>
       </c>
       <c r="M42" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906123</v>
       </c>
       <c r="N42" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874766</v>
       </c>
       <c r="O42" t="n">
         <v>252.9616513614739</v>
@@ -34243,7 +34243,7 @@
         <v>4.285430670842524</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06994718178741884</v>
+        <v>0.06994718178741885</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932276</v>
       </c>
       <c r="H43" t="n">
-        <v>7.924901029003428</v>
+        <v>7.924901029003429</v>
       </c>
       <c r="I43" t="n">
         <v>26.80528896108725</v>
@@ -34298,7 +34298,7 @@
         <v>132.5192550391841</v>
       </c>
       <c r="M43" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682066</v>
       </c>
       <c r="N43" t="n">
         <v>136.4006738458228</v>
@@ -34310,7 +34310,7 @@
         <v>107.8045841409627</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.63830611262836</v>
+        <v>74.63830611262837</v>
       </c>
       <c r="R43" t="n">
         <v>40.07828270905002</v>
@@ -34319,7 +34319,7 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T43" t="n">
-        <v>3.808490269561971</v>
+        <v>3.808490269561972</v>
       </c>
       <c r="U43" t="n">
         <v>0.04861902471781247</v>
@@ -34365,13 +34365,13 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I44" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491879</v>
       </c>
       <c r="J44" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K44" t="n">
-        <v>252.7677441824819</v>
+        <v>252.767744182482</v>
       </c>
       <c r="L44" t="n">
         <v>313.580737911241</v>
@@ -34386,7 +34386,7 @@
         <v>334.8055482454421</v>
       </c>
       <c r="P44" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273647</v>
       </c>
       <c r="Q44" t="n">
         <v>214.5854405596218</v>
@@ -34395,7 +34395,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S44" t="n">
-        <v>45.28125130397735</v>
+        <v>45.28125130397736</v>
       </c>
       <c r="T44" t="n">
         <v>8.698570601564926</v>
@@ -34444,7 +34444,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I45" t="n">
-        <v>36.60569180208251</v>
+        <v>36.60569180208252</v>
       </c>
       <c r="J45" t="n">
         <v>100.4488161921859</v>
@@ -34456,10 +34456,10 @@
         <v>230.8490156257446</v>
       </c>
       <c r="M45" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906123</v>
       </c>
       <c r="N45" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874766</v>
       </c>
       <c r="O45" t="n">
         <v>252.9616513614739</v>
@@ -34480,7 +34480,7 @@
         <v>4.285430670842524</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06994718178741884</v>
+        <v>0.06994718178741885</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932276</v>
       </c>
       <c r="H46" t="n">
-        <v>7.924901029003428</v>
+        <v>7.924901029003429</v>
       </c>
       <c r="I46" t="n">
         <v>26.80528896108725</v>
@@ -34535,7 +34535,7 @@
         <v>132.5192550391841</v>
       </c>
       <c r="M46" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682066</v>
       </c>
       <c r="N46" t="n">
         <v>136.4006738458228</v>
@@ -34547,7 +34547,7 @@
         <v>107.8045841409627</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.63830611262836</v>
+        <v>74.63830611262837</v>
       </c>
       <c r="R46" t="n">
         <v>40.07828270905002</v>
@@ -34556,7 +34556,7 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T46" t="n">
-        <v>3.808490269561971</v>
+        <v>3.808490269561972</v>
       </c>
       <c r="U46" t="n">
         <v>0.04861902471781247</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J11" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K11" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L11" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M11" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N11" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O11" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P11" t="n">
         <v>248.1734276171333</v>
@@ -35433,7 +35433,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R11" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J12" t="n">
-        <v>79.83770185885257</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K12" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L12" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M12" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N12" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O12" t="n">
-        <v>388.3621795382737</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P12" t="n">
         <v>181.2531855058807</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.969146960424</v>
+        <v>247.8473165317577</v>
       </c>
       <c r="R12" t="n">
         <v>148.85927498986</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K13" t="n">
-        <v>82.5938681962284</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L13" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M13" t="n">
-        <v>534.442728698631</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N13" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O13" t="n">
-        <v>246.0555918639534</v>
+        <v>401.6259919869574</v>
       </c>
       <c r="P13" t="n">
-        <v>401.3391416378324</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q13" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J14" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K14" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L14" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M14" t="n">
-        <v>311.487728566482</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N14" t="n">
-        <v>317.285242696961</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O14" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P14" t="n">
         <v>248.1734276171333</v>
@@ -35670,7 +35670,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R14" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885258</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K15" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L15" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M15" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N15" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O15" t="n">
-        <v>388.3621795382735</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P15" t="n">
         <v>181.2531855058807</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K16" t="n">
-        <v>159.5584070318727</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L16" t="n">
-        <v>490.7912967507202</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M16" t="n">
         <v>534.442728698631</v>
       </c>
       <c r="N16" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O16" t="n">
-        <v>485.0064111831651</v>
+        <v>461.3994895148334</v>
       </c>
       <c r="P16" t="n">
-        <v>85.42378348297619</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q16" t="n">
         <v>202.9212659517818</v>
@@ -35892,10 +35892,10 @@
         <v>275.268695478618</v>
       </c>
       <c r="M17" t="n">
-        <v>311.487728566482</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N17" t="n">
-        <v>317.285242696961</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O17" t="n">
         <v>297.414588889418</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J18" t="n">
-        <v>344.9308271163654</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K18" t="n">
         <v>149.2837922911599</v>
@@ -35986,7 +35986,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R18" t="n">
-        <v>42.33856763136926</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>42.38160322116931</v>
       </c>
       <c r="K19" t="n">
-        <v>332.3742814427154</v>
+        <v>82.5938681962284</v>
       </c>
       <c r="L19" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M19" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N19" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O19" t="n">
-        <v>290.327880963519</v>
+        <v>312.8200152067067</v>
       </c>
       <c r="P19" t="n">
-        <v>85.42378348297619</v>
+        <v>85.42378348297618</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>317.285242696961</v>
       </c>
       <c r="O20" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894175</v>
       </c>
       <c r="P20" t="n">
         <v>248.1734276171333</v>
@@ -36144,7 +36144,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J21" t="n">
-        <v>79.83770185885258</v>
+        <v>214.7158714301857</v>
       </c>
       <c r="K21" t="n">
         <v>149.2837922911599</v>
@@ -36220,7 +36220,7 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q21" t="n">
-        <v>271.5415648594462</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R21" t="n">
         <v>148.85927498986</v>
@@ -36287,19 +36287,19 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M22" t="n">
-        <v>534.442728698631</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N22" t="n">
-        <v>115.6517728702224</v>
+        <v>281.4222884861171</v>
       </c>
       <c r="O22" t="n">
-        <v>103.4889118870002</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P22" t="n">
-        <v>368.3191262770641</v>
+        <v>85.42378348297619</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.01874334784341</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>248.1734276171333</v>
       </c>
       <c r="Q23" t="n">
-        <v>639.7932384704529</v>
+        <v>639.7932384704534</v>
       </c>
       <c r="R23" t="n">
         <v>89.79009951709455</v>
@@ -36521,7 +36521,7 @@
         <v>332.3742814427154</v>
       </c>
       <c r="L25" t="n">
-        <v>490.7912967507202</v>
+        <v>377.898942285698</v>
       </c>
       <c r="M25" t="n">
         <v>534.8601405048236</v>
@@ -36530,7 +36530,7 @@
         <v>517.705230286263</v>
       </c>
       <c r="O25" t="n">
-        <v>372.1140567181423</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P25" t="n">
         <v>401.3391416378324</v>
@@ -36597,13 +36597,13 @@
         <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
-        <v>217.0031433876726</v>
+        <v>678.3356159031021</v>
       </c>
       <c r="L26" t="n">
-        <v>297.2052580410052</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M26" t="n">
-        <v>750.8836385195242</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N26" t="n">
         <v>317.285242696961</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K28" t="n">
-        <v>332.3742814427154</v>
+        <v>219.4819269776932</v>
       </c>
       <c r="L28" t="n">
         <v>490.7912967507202</v>
@@ -36764,7 +36764,7 @@
         <v>534.8601405048236</v>
       </c>
       <c r="N28" t="n">
-        <v>483.5216805164133</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O28" t="n">
         <v>485.0064111831651</v>
@@ -36831,13 +36831,13 @@
         <v>42.06012558095527</v>
       </c>
       <c r="J29" t="n">
-        <v>520.6370604783563</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K29" t="n">
         <v>217.0031433876726</v>
       </c>
       <c r="L29" t="n">
-        <v>750.8836385195242</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M29" t="n">
         <v>311.487728566482</v>
@@ -36852,7 +36852,7 @@
         <v>248.1734276171333</v>
       </c>
       <c r="Q29" t="n">
-        <v>178.4607659550238</v>
+        <v>639.7932384704534</v>
       </c>
       <c r="R29" t="n">
         <v>89.79009951709455</v>
@@ -36910,13 +36910,13 @@
         <v>20.43330505208251</v>
       </c>
       <c r="J30" t="n">
-        <v>344.9308271163653</v>
+        <v>79.83770185885258</v>
       </c>
       <c r="K30" t="n">
         <v>149.2837922911599</v>
       </c>
       <c r="L30" t="n">
-        <v>208.333928911515</v>
+        <v>473.4270541690278</v>
       </c>
       <c r="M30" t="n">
         <v>246.2931322782843</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K31" t="n">
         <v>332.3742814427154</v>
@@ -37010,7 +37010,7 @@
         <v>401.3391416378324</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.02891148675924</v>
+        <v>168.7377161819318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>42.06012558095527</v>
       </c>
       <c r="J32" t="n">
-        <v>534.9195310038328</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K32" t="n">
-        <v>238.9397059500597</v>
+        <v>417.5350620005848</v>
       </c>
       <c r="L32" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M32" t="n">
-        <v>750.8836385195242</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N32" t="n">
         <v>317.285242696961</v>
@@ -37086,13 +37086,13 @@
         <v>297.414588889418</v>
       </c>
       <c r="P32" t="n">
-        <v>248.1734276171333</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="Q32" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R32" t="n">
-        <v>89.79009951709455</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>44.12755337977124</v>
+        <v>20.43330505208251</v>
       </c>
       <c r="J33" t="n">
-        <v>79.83770185885258</v>
+        <v>344.9308271163653</v>
       </c>
       <c r="K33" t="n">
         <v>149.2837922911599</v>
@@ -37168,10 +37168,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q33" t="n">
-        <v>247.8473165317573</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R33" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136926</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,16 +37302,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095529</v>
       </c>
       <c r="J35" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K35" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876727</v>
       </c>
       <c r="L35" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786181</v>
       </c>
       <c r="M35" t="n">
         <v>311.487728566482</v>
@@ -37323,13 +37323,13 @@
         <v>297.414588889418</v>
       </c>
       <c r="P35" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171334</v>
       </c>
       <c r="Q35" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550239</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709457</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>44.12755337977124</v>
       </c>
       <c r="J36" t="n">
-        <v>79.83770185885258</v>
+        <v>79.8377018588526</v>
       </c>
       <c r="K36" t="n">
-        <v>149.2837922911599</v>
+        <v>284.1619618624929</v>
       </c>
       <c r="L36" t="n">
         <v>208.333928911515</v>
@@ -37399,16 +37399,16 @@
         <v>255.1768339739349</v>
       </c>
       <c r="O36" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392517</v>
       </c>
       <c r="P36" t="n">
         <v>181.2531855058807</v>
       </c>
       <c r="Q36" t="n">
-        <v>354.368023890248</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R36" t="n">
-        <v>42.33856763136926</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.38160322116931</v>
+        <v>42.38160322116933</v>
       </c>
       <c r="K37" t="n">
-        <v>82.59386819622841</v>
+        <v>82.59386819622843</v>
       </c>
       <c r="L37" t="n">
-        <v>490.7912967507202</v>
+        <v>318.6049007742625</v>
       </c>
       <c r="M37" t="n">
-        <v>295.4919093794193</v>
+        <v>534.4427286986311</v>
       </c>
       <c r="N37" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O37" t="n">
         <v>485.0064111831651</v>
       </c>
       <c r="P37" t="n">
-        <v>401.3391416378324</v>
+        <v>85.42378348297621</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784343</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095529</v>
       </c>
       <c r="J38" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K38" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876727</v>
       </c>
       <c r="L38" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786181</v>
       </c>
       <c r="M38" t="n">
         <v>311.487728566482</v>
@@ -37560,13 +37560,13 @@
         <v>297.414588889418</v>
       </c>
       <c r="P38" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171334</v>
       </c>
       <c r="Q38" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R38" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709457</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J39" t="n">
-        <v>344.9308271163654</v>
+        <v>79.8377018588526</v>
       </c>
       <c r="K39" t="n">
         <v>149.2837922911599</v>
@@ -37630,13 +37630,13 @@
         <v>208.333928911515</v>
       </c>
       <c r="M39" t="n">
-        <v>246.2931322782843</v>
+        <v>381.1713018496174</v>
       </c>
       <c r="N39" t="n">
         <v>255.1768339739349</v>
       </c>
       <c r="O39" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392517</v>
       </c>
       <c r="P39" t="n">
         <v>181.2531855058807</v>
@@ -37645,7 +37645,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136926</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116933</v>
       </c>
       <c r="K40" t="n">
-        <v>299.3542660819471</v>
+        <v>82.59386819622843</v>
       </c>
       <c r="L40" t="n">
-        <v>490.7912967507202</v>
+        <v>318.6049007742625</v>
       </c>
       <c r="M40" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986311</v>
       </c>
       <c r="N40" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O40" t="n">
-        <v>103.4889118870002</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P40" t="n">
-        <v>401.3391416378324</v>
+        <v>85.42378348297621</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.01874334784341</v>
+        <v>50.01874334784343</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095529</v>
       </c>
       <c r="J41" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K41" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876727</v>
       </c>
       <c r="L41" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786181</v>
       </c>
       <c r="M41" t="n">
         <v>311.487728566482</v>
@@ -37797,13 +37797,13 @@
         <v>297.414588889418</v>
       </c>
       <c r="P41" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171334</v>
       </c>
       <c r="Q41" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R41" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709457</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.43330505208251</v>
+        <v>20.43330505208252</v>
       </c>
       <c r="J42" t="n">
-        <v>238.4101197578744</v>
+        <v>344.9308271163653</v>
       </c>
       <c r="K42" t="n">
         <v>149.2837922911599</v>
@@ -37873,7 +37873,7 @@
         <v>255.1768339739349</v>
       </c>
       <c r="O42" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392517</v>
       </c>
       <c r="P42" t="n">
         <v>181.2531855058807</v>
@@ -37882,7 +37882,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R42" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136926</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K43" t="n">
         <v>332.3742814427154</v>
@@ -37946,16 +37946,16 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M43" t="n">
-        <v>117.1475339767207</v>
+        <v>117.1475339767208</v>
       </c>
       <c r="N43" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O43" t="n">
-        <v>327.4322740781919</v>
+        <v>334.8615686442043</v>
       </c>
       <c r="P43" t="n">
-        <v>85.42378348297619</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q43" t="n">
         <v>202.9212659517818</v>
@@ -38013,16 +38013,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095529</v>
       </c>
       <c r="J44" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K44" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876727</v>
       </c>
       <c r="L44" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786181</v>
       </c>
       <c r="M44" t="n">
         <v>311.487728566482</v>
@@ -38034,13 +38034,13 @@
         <v>297.414588889418</v>
       </c>
       <c r="P44" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171334</v>
       </c>
       <c r="Q44" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R44" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709457</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>44.12755337977124</v>
+        <v>20.43330505208252</v>
       </c>
       <c r="J45" t="n">
-        <v>79.83770185885258</v>
+        <v>79.8377018588526</v>
       </c>
       <c r="K45" t="n">
         <v>149.2837922911599</v>
@@ -38104,22 +38104,22 @@
         <v>208.333928911515</v>
       </c>
       <c r="M45" t="n">
-        <v>381.1713018496175</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N45" t="n">
         <v>255.1768339739349</v>
       </c>
       <c r="O45" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392517</v>
       </c>
       <c r="P45" t="n">
-        <v>181.2531855058807</v>
+        <v>446.3463107633933</v>
       </c>
       <c r="Q45" t="n">
         <v>112.969146960424</v>
       </c>
       <c r="R45" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136926</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K46" t="n">
         <v>332.3742814427154</v>
@@ -38183,19 +38183,19 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M46" t="n">
-        <v>117.1475339767207</v>
+        <v>117.1475339767208</v>
       </c>
       <c r="N46" t="n">
-        <v>513.0336157852283</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O46" t="n">
-        <v>485.0064111831651</v>
+        <v>334.8615686442043</v>
       </c>
       <c r="P46" t="n">
-        <v>85.42378348297619</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.01874334784341</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
